--- a/Suporte.xlsx
+++ b/Suporte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\Nova pasta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\Plataforma de consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43E7E7-CFC7-4888-B7A2-4B37D890C0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606D9406-2FFF-44F1-92EA-39C65135E7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="429" xr2:uid="{CAE9FA61-44CC-4B3A-A479-B9D1B94DD685}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MAC e SERIAL" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MAC e SERIAL'!$A$1:$E$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MAC e SERIAL'!$B$1:$B$194</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="562">
   <si>
     <t>Cidade</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Última preventiva realizada</t>
   </si>
   <si>
-    <t xml:space="preserve"> SENADOR CANEDO </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ACADEMIA DA SAUDE</t>
   </si>
   <si>
@@ -57,51 +54,30 @@
     <t>D8365F040F7B</t>
   </si>
   <si>
-    <t>24 jun. 2024 14:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AP de GYN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALMOXARIFADO - VILA BRASILIA</t>
-  </si>
-  <si>
     <t>JTAJ16073172E</t>
   </si>
   <si>
     <t>4851CF50A2BE</t>
   </si>
   <si>
-    <t>28 mai. 2024 09:24</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ALMOXARIFADO EDUCAÇÃO</t>
   </si>
   <si>
     <t>4851CF50A2FB</t>
   </si>
   <si>
-    <t xml:space="preserve"> ALMOXARIFADO EDUCAÇÃO - SC</t>
-  </si>
-  <si>
     <t>JTAJ1910961MT</t>
   </si>
   <si>
     <t>NÃO TEM</t>
   </si>
   <si>
-    <t>22 mai. 2024 13:28</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ALMOXARIFADO SAÚDE</t>
   </si>
   <si>
     <t>JTAJ19093980H</t>
   </si>
   <si>
-    <t>24 jun. 2024 14:16</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CAPS AD - RECOMEÇO</t>
   </si>
   <si>
@@ -111,9 +87,6 @@
     <t>D8365F040F85</t>
   </si>
   <si>
-    <t>24 jun. 2024 10:45</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CAPS AD - REENCONTRO - TRANSTORNOS MENTAIS</t>
   </si>
   <si>
@@ -123,9 +96,6 @@
     <t>D8365F0453DF</t>
   </si>
   <si>
-    <t>22 mai. 2024 10:23</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CASA DE MUSICA</t>
   </si>
   <si>
@@ -135,15 +105,9 @@
     <t>4851CF504F3C</t>
   </si>
   <si>
-    <t>21 jun. 2024 11:25</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CEMEP</t>
   </si>
   <si>
-    <t>SEM EQUIPAMENTO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CENTRAL DE ABASTECIMENTO FARMACEUTICA - CAF</t>
   </si>
   <si>
@@ -153,9 +117,6 @@
     <t>D8365F0453A8</t>
   </si>
   <si>
-    <t>24 jun. 2024 14:05</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CENTRO DE ESPECIALIDADE MEDICAS</t>
   </si>
   <si>
@@ -165,9 +126,6 @@
     <t>D8365F040F7A</t>
   </si>
   <si>
-    <t>6 jun. 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CENTRO DE ESPECIALIDADE ODONTOLÓGICAS</t>
   </si>
   <si>
@@ -177,9 +135,6 @@
     <t>D8365F01E223</t>
   </si>
   <si>
-    <t>24 jun. 2024 13:25</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CENTRO DE ZOONOSES</t>
   </si>
   <si>
@@ -189,15 +144,9 @@
     <t>D8365F01E76F</t>
   </si>
   <si>
-    <t>22 mai. 2024 09:33</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI AMELIA ALVES</t>
   </si>
   <si>
-    <t>NÃO FEZ RELATORIO, FERNANDO E MARCILIO, 12/06</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI ANA BARBOSA DA COSTA</t>
   </si>
   <si>
@@ -216,9 +165,6 @@
     <t>4851CFBAC80A</t>
   </si>
   <si>
-    <t>27 mai. 2024 15:36</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI AZELIA DE OLIVEIRA</t>
   </si>
   <si>
@@ -228,9 +174,6 @@
     <t>4851CF50A2A5</t>
   </si>
   <si>
-    <t>12 jun. 2024 09:06</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI BENEDITA CORREIA D'ABADIA</t>
   </si>
   <si>
@@ -240,9 +183,6 @@
     <t>4851CFBAC81F</t>
   </si>
   <si>
-    <t>27 mai. 2024 13:59</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI BENEDITA MARIA DO NASCIMENTO</t>
   </si>
   <si>
@@ -252,9 +192,6 @@
     <t>4851CF50AF3A</t>
   </si>
   <si>
-    <t>12 jun. 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI BURITI SERENO</t>
   </si>
   <si>
@@ -315,9 +252,6 @@
     <t>4851CFBAC822</t>
   </si>
   <si>
-    <t>27 mai. 2024 14:25</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI EDITH PEREIRA SOARES</t>
   </si>
   <si>
@@ -336,9 +270,6 @@
     <t>4851CFB8E2F2</t>
   </si>
   <si>
-    <t>28 mai. 2024 15:18</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI EULER FERNANDES</t>
   </si>
   <si>
@@ -393,9 +324,6 @@
     <t>4851CF504EF7</t>
   </si>
   <si>
-    <t>24 mai. 2024 08:12</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI JOSE VICENTE DE ARAUJO</t>
   </si>
   <si>
@@ -414,9 +342,6 @@
     <t>4851CF50A2CC</t>
   </si>
   <si>
-    <t>28 mai. 2024 10:33</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI LEOTERIO DIAS MACHADO</t>
   </si>
   <si>
@@ -450,9 +375,6 @@
     <t>4851CF50A2E7</t>
   </si>
   <si>
-    <t>11 jun. 2024 13:39</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI MARIA MADALENA RODRIGUES PEREIRA</t>
   </si>
   <si>
@@ -471,9 +393,6 @@
     <t>4851CFB8E2EF</t>
   </si>
   <si>
-    <t>6 jun. 2024 11:17</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI OZORIA LUIZA DE JESUS</t>
   </si>
   <si>
@@ -483,9 +402,6 @@
     <t>D8365F01E72A</t>
   </si>
   <si>
-    <t>10 jun. 2024 14:11</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI PADRE JOSE</t>
   </si>
   <si>
@@ -495,9 +411,6 @@
     <t>4851CFBAC807</t>
   </si>
   <si>
-    <t>5 jun. 2024 14:28</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI PARQUE PRIMAVERA</t>
   </si>
   <si>
@@ -507,9 +420,6 @@
     <t>4851CF50A2AF</t>
   </si>
   <si>
-    <t>20 mai. 2024 13:50</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI PROF. DANIELA SILVA BRITO</t>
   </si>
   <si>
@@ -519,9 +429,6 @@
     <t>4851CFBAC832</t>
   </si>
   <si>
-    <t>21 mai. 2024 10:47</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI PROF. IZILDA NUNES BISPO</t>
   </si>
   <si>
@@ -531,9 +438,6 @@
     <t>4851CFBAC85C</t>
   </si>
   <si>
-    <t>22 mai. 2024 14:11</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI PROF. JOSE EDUARDO SILVA NASCIMENTO</t>
   </si>
   <si>
@@ -543,9 +447,6 @@
     <t>4851CFBAC809</t>
   </si>
   <si>
-    <t>28 mai. 2024 09:14</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI PROF. JURACY FONSECA</t>
   </si>
   <si>
@@ -555,9 +456,6 @@
     <t>4851CFBAC85F</t>
   </si>
   <si>
-    <t>23 mai. 2024 13:41</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI PROF. LUCIENE CRISTINA</t>
   </si>
   <si>
@@ -567,9 +465,6 @@
     <t>4851CFBAC811</t>
   </si>
   <si>
-    <t>23 mai. 2024 09:59</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI PROF. OLAIDES BONIFACIO DA SILVA</t>
   </si>
   <si>
@@ -588,15 +483,9 @@
     <t>4851CF50A2ED</t>
   </si>
   <si>
-    <t>24 mai. 2024 08:42</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI RESIDENCIAL ARAGUAIA</t>
   </si>
   <si>
-    <t>NÃO TEM INTERNET</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI ROTARY CLUB</t>
   </si>
   <si>
@@ -606,9 +495,6 @@
     <t>4851CF50A2F8</t>
   </si>
   <si>
-    <t>20 mai. 2024 08:49</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI SANTA TEREZINHA</t>
   </si>
   <si>
@@ -621,9 +507,6 @@
     <t xml:space="preserve"> CMEI SIMILIANA LEMES</t>
   </si>
   <si>
-    <t>28 mai. 2024 10:18 -03</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI SINHAZINHA</t>
   </si>
   <si>
@@ -633,9 +516,6 @@
     <t>4851CFBAC85D</t>
   </si>
   <si>
-    <t>21 mai. 2024 15:39</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI TEOFILO TAVARES</t>
   </si>
   <si>
@@ -645,9 +525,6 @@
     <t>4851CFBAC83D</t>
   </si>
   <si>
-    <t>21 mai. 2024 14:34</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI THAYS DE SOUZA RIBEIRO</t>
   </si>
   <si>
@@ -657,9 +534,6 @@
     <t>4851CFBAC806</t>
   </si>
   <si>
-    <t>27 mai. 2024 10:49</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI TIA BELY</t>
   </si>
   <si>
@@ -678,9 +552,6 @@
     <t>4851CF50A2BD</t>
   </si>
   <si>
-    <t>12 jun. 2024 10:06</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI VILA DELFIORE</t>
   </si>
   <si>
@@ -690,9 +561,6 @@
     <t>4851CF504EF1</t>
   </si>
   <si>
-    <t>10 jun. 2024 15:29</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CMEI VOVO BIA</t>
   </si>
   <si>
@@ -702,21 +570,12 @@
     <t>4851CFBAC80E</t>
   </si>
   <si>
-    <t>23 mai. 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DIRETORIA DE INFRAESTRUTURA</t>
   </si>
   <si>
-    <t>LOCAL FECHADO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ABDON FERREIRA DE CARVALHO</t>
   </si>
   <si>
-    <t>NÃO FEZ RELATORIO, FERNANDO E WELLINGTON, 28/05</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ADELINO ARIANE</t>
   </si>
   <si>
@@ -726,9 +585,6 @@
     <t>4851CF50A2E6</t>
   </si>
   <si>
-    <t>24 mai. 2024 11:20</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ALEXANDRE GARCIA CARRERA</t>
   </si>
   <si>
@@ -738,9 +594,6 @@
     <t>4851CF50A2C0</t>
   </si>
   <si>
-    <t>24 mai. 2024 09:28</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ALEXANDRE PEREIRA LIMA</t>
   </si>
   <si>
@@ -750,9 +603,6 @@
     <t>4851CFBAC82D</t>
   </si>
   <si>
-    <t>6 jun. 2024 15:13</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M AMÉLIA CÂNDIDA BRASIL</t>
   </si>
   <si>
@@ -771,9 +621,6 @@
     <t>30E1F199EDBE</t>
   </si>
   <si>
-    <t>6 jun. 2024 15:33</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ANTÔNIO ALVES NETO</t>
   </si>
   <si>
@@ -783,9 +630,6 @@
     <t>4851CF50A291</t>
   </si>
   <si>
-    <t>11 jun. 2024 09:38</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ANTÔNIO DE SOUZA LOPES</t>
   </si>
   <si>
@@ -804,9 +648,6 @@
     <t>4851CFBAC820</t>
   </si>
   <si>
-    <t>27 mai. 2024 13:27</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ARACY AMARAL</t>
   </si>
   <si>
@@ -816,9 +657,6 @@
     <t>4851CFBAC834</t>
   </si>
   <si>
-    <t>27 mai. 2024 09:18</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ARI CAETANO DA COSTA</t>
   </si>
   <si>
@@ -837,9 +675,6 @@
     <t>JTAJ1909323D6</t>
   </si>
   <si>
-    <t>6 jun. 2024 14:37</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M BENEDITO RODRIGUES SIQUEIRA</t>
   </si>
   <si>
@@ -861,9 +696,6 @@
     <t>4851CF50A293</t>
   </si>
   <si>
-    <t>7 jun. 2024 10:48</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M CIDADE SATÉLITE SÃO LUIZ</t>
   </si>
   <si>
@@ -882,9 +714,6 @@
     <t>4851CF50A294</t>
   </si>
   <si>
-    <t>6 jun. 2024 14:12</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M CLARINDA RODRIGUES DE MELO</t>
   </si>
   <si>
@@ -894,9 +723,6 @@
     <t>4851CFBAC80C</t>
   </si>
   <si>
-    <t>23 mai. 2024 13:02</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M CORA CORALINA</t>
   </si>
   <si>
@@ -909,9 +735,6 @@
     <t xml:space="preserve"> E M CRISTIANE MARIA DE SOUZA (JARDIM OLÍMPICO II)</t>
   </si>
   <si>
-    <t>FALTA RELATORIO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M DA PAZ</t>
   </si>
   <si>
@@ -921,9 +744,6 @@
     <t>4851CF50A2E4</t>
   </si>
   <si>
-    <t>10 jun. 2024 10:29</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M DEOCLIDES DOS SANTOS</t>
   </si>
   <si>
@@ -933,9 +753,6 @@
     <t>4851CFBAC80F</t>
   </si>
   <si>
-    <t>22 mai. 2024 14:57</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M DERALDO LISBOA DOS SANTOS</t>
   </si>
   <si>
@@ -954,18 +771,12 @@
     <t>4851CFBAC81E</t>
   </si>
   <si>
-    <t>27 mai. 2024 15:07</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M DR. XAVIER DE ALMEIDA</t>
   </si>
   <si>
     <t>4851CFBAC81D</t>
   </si>
   <si>
-    <t>23 mai. 2024 14:10</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ELIAS ROCHA RIBEIRO</t>
   </si>
   <si>
@@ -975,9 +786,6 @@
     <t>4851CFBAC816</t>
   </si>
   <si>
-    <t>INTERNET FOI INSTALADA, AGUARDANDO REALIZAR PREVENTIVA.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ESPIRITA ANDRÉ LUIZ</t>
   </si>
   <si>
@@ -987,9 +795,6 @@
     <t>4851CFBAC810</t>
   </si>
   <si>
-    <t>23 mai. 2024 10:33</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M EURÍPEDES MENEZES</t>
   </si>
   <si>
@@ -1026,9 +831,6 @@
     <t>4851CF50A303</t>
   </si>
   <si>
-    <t>20 mai. 2024 09:55</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M IRMÃ CATARINA JARDIM MIRANDA</t>
   </si>
   <si>
@@ -1038,9 +840,6 @@
     <t>4851CFBAC85B</t>
   </si>
   <si>
-    <t>22 mai. 2024 09:01</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M IZABEL DE MATOS</t>
   </si>
   <si>
@@ -1050,9 +849,6 @@
     <t>4851CFBAC833</t>
   </si>
   <si>
-    <t>23 mai. 2024 10:56</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M JARDIM BELA VISTA</t>
   </si>
   <si>
@@ -1062,9 +858,6 @@
     <t>4851CF50A307</t>
   </si>
   <si>
-    <t>20 mai. 2024 10:05</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M JARDIM IPÊ</t>
   </si>
   <si>
@@ -1074,9 +867,6 @@
     <t>4851CF50A316</t>
   </si>
   <si>
-    <t>10 jun. 2024 09:18</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M JOANA ANGÉLICA R. PAGANIN</t>
   </si>
   <si>
@@ -1086,9 +876,6 @@
     <t>4851CF50A2C6</t>
   </si>
   <si>
-    <t>12 jun. 2024 13:56</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M JOÃO CÂNDIDO DA SILVA</t>
   </si>
   <si>
@@ -1098,9 +885,6 @@
     <t>4851CF50A2A4</t>
   </si>
   <si>
-    <t>24 mai. 2024 08:09</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M JOAO PEREIRA DOS SANTOS</t>
   </si>
   <si>
@@ -1110,9 +894,6 @@
     <t>4851CFBAC83E</t>
   </si>
   <si>
-    <t>21 mai. 2024 13:44</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M JOAO SOARES DA SILVA</t>
   </si>
   <si>
@@ -1122,18 +903,12 @@
     <t>4851CFBAC808</t>
   </si>
   <si>
-    <t>28 mai. 2024 11:14</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M JOSE BOTELHO PESSOA</t>
   </si>
   <si>
     <t>JTAJ16071988L</t>
   </si>
   <si>
-    <t>28 mai. 2024 12:25</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M JOSÉ DOS SANTOS B. FERREIRA</t>
   </si>
   <si>
@@ -1143,9 +918,6 @@
     <t>4851CF50A2F3</t>
   </si>
   <si>
-    <t>10 jun. 2024 13:19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M JOSÉ MOREIRA GONTIJO</t>
   </si>
   <si>
@@ -1173,9 +945,6 @@
     <t>4851CF50A2C4</t>
   </si>
   <si>
-    <t>12 jun. 2024 11:21</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M LUZIA MARIA DE SIQUEIRA</t>
   </si>
   <si>
@@ -1188,9 +957,6 @@
     <t>4851CF50A2EE</t>
   </si>
   <si>
-    <t>24 mai. 2024 09:40</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M MARIA FALEIRO DE ARAUJO</t>
   </si>
   <si>
@@ -1200,18 +966,12 @@
     <t>4851CFBAC831</t>
   </si>
   <si>
-    <t>22 mai. 2024 08:46</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M MARIA GOMES DA SILVA</t>
   </si>
   <si>
     <t>4851CF50A2D9</t>
   </si>
   <si>
-    <t>7 jun. 2024 09:33</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M MARIA JOSE CANDIDO DE OLIVEIRA</t>
   </si>
   <si>
@@ -1221,9 +981,6 @@
     <t>4851CFBAC80B</t>
   </si>
   <si>
-    <t>28 mai. 2024 13:40</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M MENINO JESUS</t>
   </si>
   <si>
@@ -1278,9 +1035,6 @@
     <t>4851CF504F86</t>
   </si>
   <si>
-    <t>20 jun. 2024 15:40</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M PARQUE SANTA CECÍLIA</t>
   </si>
   <si>
@@ -1290,9 +1044,6 @@
     <t>4851CF50A2BF</t>
   </si>
   <si>
-    <t>20 mai. 2024 13:58</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M PASTOR ALBINO GONÇALVES BOAVENTURA</t>
   </si>
   <si>
@@ -1302,9 +1053,6 @@
     <t>4851CFBAC854</t>
   </si>
   <si>
-    <t>21 mai. 2024 15:35</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M PONTAL SUL</t>
   </si>
   <si>
@@ -1314,9 +1062,6 @@
     <t>4851CFBAC836</t>
   </si>
   <si>
-    <t>11 jun. 2024 09:02</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M PROF. CELINA DE SOUZA AMARAL</t>
   </si>
   <si>
@@ -1326,9 +1071,6 @@
     <t>4851CFBAC861</t>
   </si>
   <si>
-    <t>22 mai. 2024 14:50</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M PROF. NILSON GOMES</t>
   </si>
   <si>
@@ -1338,9 +1080,6 @@
     <t>4851CFBAC839</t>
   </si>
   <si>
-    <t>28 mai. 2024 15:05</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M PROF. WALDERICO BLAMIRES</t>
   </si>
   <si>
@@ -1350,9 +1089,6 @@
     <t>4851CFBAC835</t>
   </si>
   <si>
-    <t>6 jun. 2024 13:26</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M PROFª MÔNICA TOMAZ DA SILVA</t>
   </si>
   <si>
@@ -1371,9 +1107,6 @@
     <t>4851CF504EEC</t>
   </si>
   <si>
-    <t>11 jun. 2024 16:01</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ROGÉRIO BONIFÁCIO</t>
   </si>
   <si>
@@ -1383,9 +1116,6 @@
     <t>4851CF50A2AE</t>
   </si>
   <si>
-    <t>20 mai. 2024 09:00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M ROQUE INOCÊNCIO MENDES</t>
   </si>
   <si>
@@ -1395,9 +1125,6 @@
     <t>4851CF504F87</t>
   </si>
   <si>
-    <t>10 jun. 2024 15:55</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M SANTA TEREZA DE ÁVILA</t>
   </si>
   <si>
@@ -1416,9 +1143,6 @@
     <t>4851CF50A28F</t>
   </si>
   <si>
-    <t>12 jun. 2024 07:46</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M SANTO ANTÔNIO</t>
   </si>
   <si>
@@ -1446,9 +1170,6 @@
     <t>4851CF50A2BB</t>
   </si>
   <si>
-    <t>24 mai. 2024 08:38</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M SEBASTIANA LOURENÇO CAMILO</t>
   </si>
   <si>
@@ -1476,9 +1197,6 @@
     <t>4851CFBAC838</t>
   </si>
   <si>
-    <t>6 jun. 2024 09:22</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M SERRA DAS AREIAS</t>
   </si>
   <si>
@@ -1503,9 +1221,6 @@
     <t>4851CF504F88</t>
   </si>
   <si>
-    <t>11 jun. 2024 07:51</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M TULIO COSTA</t>
   </si>
   <si>
@@ -1524,9 +1239,6 @@
     <t>4851CF50A308</t>
   </si>
   <si>
-    <t>6 jun. 2024 11:30</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M VERA CRUZ II</t>
   </si>
   <si>
@@ -1536,9 +1248,6 @@
     <t>4851CF50A313</t>
   </si>
   <si>
-    <t>28 mai. 2024 08:17</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M VILMAR GONÇALVES DA SILVA</t>
   </si>
   <si>
@@ -1557,9 +1266,6 @@
     <t>4851CF504F0C</t>
   </si>
   <si>
-    <t>22 mai. 2024 11:16</t>
-  </si>
-  <si>
     <t xml:space="preserve"> E M WALTER FERREIRA DE CARVALHO</t>
   </si>
   <si>
@@ -1569,9 +1275,6 @@
     <t>4851CFB8E2F0</t>
   </si>
   <si>
-    <t>6 jun. 2024 10:24</t>
-  </si>
-  <si>
     <t xml:space="preserve"> EMEI APRENDIZES DA INFÂNCIA</t>
   </si>
   <si>
@@ -1581,9 +1284,6 @@
     <t>4851CFBAC830</t>
   </si>
   <si>
-    <t>28 mai. 2024 14:33</t>
-  </si>
-  <si>
     <t xml:space="preserve"> EMEI BEIJAMIM SANTOS</t>
   </si>
   <si>
@@ -1602,9 +1302,6 @@
     <t>4851CFBAC85E</t>
   </si>
   <si>
-    <t>22 mai. 2024 13:40</t>
-  </si>
-  <si>
     <t xml:space="preserve"> EMEI DARCY RIBEIRO (CAIC)</t>
   </si>
   <si>
@@ -1623,9 +1320,6 @@
     <t>4851CFB8E2F1</t>
   </si>
   <si>
-    <t>28 mai. 2024 14:23</t>
-  </si>
-  <si>
     <t>JTAJ1610287NO</t>
   </si>
   <si>
@@ -1641,9 +1335,6 @@
     <t>4851CFBAC855</t>
   </si>
   <si>
-    <t>21 mai. 2024 13:29</t>
-  </si>
-  <si>
     <t xml:space="preserve"> EMEI PROFª VINOVITA GUIMARÃES DA SILVA</t>
   </si>
   <si>
@@ -1653,9 +1344,6 @@
     <t>4851CF504EF2</t>
   </si>
   <si>
-    <t>11 jun. 2024 11:50</t>
-  </si>
-  <si>
     <t xml:space="preserve"> EMEI PROFª WILSONINA DE FÁTIMA</t>
   </si>
   <si>
@@ -1671,9 +1359,6 @@
     <t>4851CF50A2C5</t>
   </si>
   <si>
-    <t>12 jun. 2024 15:43</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ESTAÇÃO DA CULTURA</t>
   </si>
   <si>
@@ -1683,9 +1368,6 @@
     <t>4851CFBAC805</t>
   </si>
   <si>
-    <t>6 jun. 2024 09:54</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FARMACIA POPULAR</t>
   </si>
   <si>
@@ -1695,9 +1377,6 @@
     <t>D8365F01E729</t>
   </si>
   <si>
-    <t>28 mai. 2024 08:47</t>
-  </si>
-  <si>
     <t xml:space="preserve"> MATERNIDADE MUNICIPAL ARISTINA CANDIDA</t>
   </si>
   <si>
@@ -1707,9 +1386,6 @@
     <t>D8365F0453BD</t>
   </si>
   <si>
-    <t>28 mai. 2024 15:50</t>
-  </si>
-  <si>
     <t xml:space="preserve"> MATERNIDADE MUNICIPAL ARISTINA CANDIDA 2</t>
   </si>
   <si>
@@ -1725,18 +1401,12 @@
     <t>D8365F01E771</t>
   </si>
   <si>
-    <t>23 mai. 2024 08:46</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PS PARQUE ALVORADA INTERNO</t>
   </si>
   <si>
     <t>JTAJ1603299WG</t>
   </si>
   <si>
-    <t>23 mai. 2024 08:57</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PS VILA SÃO JOÃO</t>
   </si>
   <si>
@@ -1746,9 +1416,6 @@
     <t>D8365F0453D4</t>
   </si>
   <si>
-    <t>21 mai. 2024 08:47</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF BAIRRO ALVORADA</t>
   </si>
   <si>
@@ -1758,9 +1425,6 @@
     <t>D8365F0453DE</t>
   </si>
   <si>
-    <t>23 mai. 2024 11:40</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF BOA VISTA</t>
   </si>
   <si>
@@ -1770,9 +1434,6 @@
     <t>D8365F040F96</t>
   </si>
   <si>
-    <t>24 jun. 2024 14:39 -</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF BOM SUCESSO</t>
   </si>
   <si>
@@ -1782,9 +1443,6 @@
     <t>D8365F01E73F</t>
   </si>
   <si>
-    <t>6 jun. 2024 14:18</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF ESTRELA DO SUL</t>
   </si>
   <si>
@@ -1794,9 +1452,6 @@
     <t>D8365F0453D2</t>
   </si>
   <si>
-    <t>23 mai. 2024 13:38</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF FLOR DO IPE</t>
   </si>
   <si>
@@ -1806,24 +1461,15 @@
     <t>D8365F01E74C</t>
   </si>
   <si>
-    <t>23 mai. 2024 15:59</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF JARDIM CANEDO I</t>
   </si>
   <si>
     <t>D8365F01E768</t>
   </si>
   <si>
-    <t>27 mai. 2024 11:19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF JARDIM CANEDO II</t>
   </si>
   <si>
-    <t>PARECE QUE NÃO EXISTE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF JARDIM DAS OLIVEIRAS II</t>
   </si>
   <si>
@@ -1833,9 +1479,6 @@
     <t>D8365F01E74A</t>
   </si>
   <si>
-    <t>21 jun. 2024 09:12</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF JARDIM FLAMBOYANT</t>
   </si>
   <si>
@@ -1845,9 +1488,6 @@
     <t>D8365F01E221</t>
   </si>
   <si>
-    <t>6 jun. 2024 10:44</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF JARDIM TODOS OS SANTOS</t>
   </si>
   <si>
@@ -1860,15 +1500,9 @@
     <t>D8365F0453AE</t>
   </si>
   <si>
-    <t>27 mai. 2024 09:55</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF NOVA MORADA</t>
   </si>
   <si>
-    <t>NÃO FEZ RELATORIO, WELLINGTON, 21/05</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF SETOR CASTROS</t>
   </si>
   <si>
@@ -1878,9 +1512,6 @@
     <t>D8365F01E76D</t>
   </si>
   <si>
-    <t>21 mai. 2024 11:33</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF UIRAPURU</t>
   </si>
   <si>
@@ -1890,9 +1521,6 @@
     <t>D8365F01E73C</t>
   </si>
   <si>
-    <t xml:space="preserve">24 jun. 2024 13:41 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF VARGEM BONITA</t>
   </si>
   <si>
@@ -1902,9 +1530,6 @@
     <t>D8365F01E21C</t>
   </si>
   <si>
-    <t>28 mai. 2024 11:44</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF VILA MATINHA</t>
   </si>
   <si>
@@ -1923,9 +1548,6 @@
     <t>D8365F01E76C</t>
   </si>
   <si>
-    <t>28 mai. 2024 14:46</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PSF JARDIM CANEDO III</t>
   </si>
   <si>
@@ -1935,9 +1557,6 @@
     <t>D8365F0453A4</t>
   </si>
   <si>
-    <t>24 jun. 2024 11:41</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SAMU</t>
   </si>
   <si>
@@ -1947,9 +1566,6 @@
     <t>D8365F01E21F</t>
   </si>
   <si>
-    <t>23 mai. 2024 14:34</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SECRETARIA MUNICIPAL DE SAÚDE RACK 01</t>
   </si>
   <si>
@@ -1959,78 +1575,42 @@
     <t>D8365F0453A5</t>
   </si>
   <si>
-    <t>23 mai. 2024 09:00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SECRETARIA MUNICIPAL DE SAÚDE RACK 02</t>
   </si>
   <si>
     <t>JTAJ1909544PV</t>
   </si>
   <si>
-    <t>23 mai. 2024 09:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UBS JARDIM LIBERDADE</t>
-  </si>
-  <si>
     <t>EWVJ450043858</t>
   </si>
   <si>
     <t>D8365F01E76E</t>
   </si>
   <si>
-    <t>21 mai. 2024 14:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UBS PARAISO</t>
-  </si>
-  <si>
     <t>JTAJ190964267</t>
   </si>
   <si>
     <t>D8365F01E728</t>
   </si>
   <si>
-    <t>28 mai. 2024 09:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UBS RESIDENCIAL PRADO</t>
-  </si>
-  <si>
     <t>JTAJ19109552W</t>
   </si>
   <si>
     <t>D8365F01E769</t>
   </si>
   <si>
-    <t>28 mai. 2024 13:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UBS SANTA ROSA</t>
-  </si>
-  <si>
     <t>JTAJ1910866Z3</t>
   </si>
   <si>
     <t>D8365F01E76B</t>
   </si>
   <si>
-    <t>6 jun. 2024 13:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UBS VILA GALVAO</t>
-  </si>
-  <si>
     <t>JTAJ1909644VD</t>
   </si>
   <si>
     <t>D8365F01E73E</t>
   </si>
   <si>
-    <t>18 jun. 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve"> UPA CANEDO EXTERNO</t>
   </si>
   <si>
@@ -2040,18 +1620,12 @@
     <t>D8365F01E770</t>
   </si>
   <si>
-    <t>22 mai. 2024 10:28</t>
-  </si>
-  <si>
     <t xml:space="preserve"> UPA CANEDO INTERNO</t>
   </si>
   <si>
     <t>JTAJ1909302TL</t>
   </si>
   <si>
-    <t>22 mai. 2024 10:17</t>
-  </si>
-  <si>
     <t>JTAJ1604982C8</t>
   </si>
   <si>
@@ -2079,12 +1653,6 @@
     <t>JTAJ16071584P</t>
   </si>
   <si>
-    <t xml:space="preserve"> EMEI MONTEIRO LOBATO EXTERNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EMEI MONTEIRO LOBATO INTERNO</t>
-  </si>
-  <si>
     <t>30E1F19AB49F</t>
   </si>
   <si>
@@ -2094,156 +1662,6 @@
     <t>30E1F199EDBC</t>
   </si>
   <si>
-    <t>18/02/2025  14:40:00h</t>
-  </si>
-  <si>
-    <t>18/02/2025 15:26h</t>
-  </si>
-  <si>
-    <t>18/02/2025 13:50h</t>
-  </si>
-  <si>
-    <t>18/02/2025  11:15:00h</t>
-  </si>
-  <si>
-    <t>18/02/2025 09:27h</t>
-  </si>
-  <si>
-    <t>18/02/2025 08:22h</t>
-  </si>
-  <si>
-    <t>19/02/2025 08:46h</t>
-  </si>
-  <si>
-    <t>19/02/2025 09:39h</t>
-  </si>
-  <si>
-    <t>19/02/2025 13:07h</t>
-  </si>
-  <si>
-    <t>20/02/2025 10:06h</t>
-  </si>
-  <si>
-    <t>20/02/2025 13:16h</t>
-  </si>
-  <si>
-    <t>21/02/2025 15:42h</t>
-  </si>
-  <si>
-    <t>24/02/2025 08:47h</t>
-  </si>
-  <si>
-    <t>24/02/2025 10:42h</t>
-  </si>
-  <si>
-    <t>24/02/2025  14:53:00h</t>
-  </si>
-  <si>
-    <t>26/02/2025 14:15h</t>
-  </si>
-  <si>
-    <t>26/02/2025 15:31h</t>
-  </si>
-  <si>
-    <t>17/02/2025  15:50:00h</t>
-  </si>
-  <si>
-    <t>14/02/2025 09:30h</t>
-  </si>
-  <si>
-    <t>12/02/2025 10:30h</t>
-  </si>
-  <si>
-    <t>13/02/2025 14:54h</t>
-  </si>
-  <si>
-    <t>30/01/2025 14:23h</t>
-  </si>
-  <si>
-    <t>30/01/2025 08:06h</t>
-  </si>
-  <si>
-    <t>31/01/2025 08:37h</t>
-  </si>
-  <si>
-    <t>13/02/2025 11:04h</t>
-  </si>
-  <si>
-    <t>31/01/2025 14:15h</t>
-  </si>
-  <si>
-    <t>12/02/2025 15:02h</t>
-  </si>
-  <si>
-    <t>14/02/2025 07:57h</t>
-  </si>
-  <si>
-    <t>22/01/2025 14:56h</t>
-  </si>
-  <si>
-    <t>12/02/2025 14:08h</t>
-  </si>
-  <si>
-    <t>30/01/2025 15:36h</t>
-  </si>
-  <si>
-    <t>31/01/2025 13:24h</t>
-  </si>
-  <si>
-    <t>17/02/2025 10:01h</t>
-  </si>
-  <si>
-    <t>22/01/2025 11:42h</t>
-  </si>
-  <si>
-    <t>23/01/2025 08:20h</t>
-  </si>
-  <si>
-    <t>14/02/2025 15:23h</t>
-  </si>
-  <si>
-    <t>13/02/2025 10:21h</t>
-  </si>
-  <si>
-    <t>12/02/2025 15:41h</t>
-  </si>
-  <si>
-    <t>14/02/2025 13:12h</t>
-  </si>
-  <si>
-    <t>14/02/2025 14:04h</t>
-  </si>
-  <si>
-    <t>23/01/2025  10:06:00h</t>
-  </si>
-  <si>
-    <t>13/02/2025 13:40h</t>
-  </si>
-  <si>
-    <t>12/02/2025 11:10h</t>
-  </si>
-  <si>
-    <t>24/01/2025  13:50:00h</t>
-  </si>
-  <si>
-    <t>23/01/2025  11:53:00h</t>
-  </si>
-  <si>
-    <t>31/01/2025 09:13h</t>
-  </si>
-  <si>
-    <t>24/01/2025  09:27:00h</t>
-  </si>
-  <si>
-    <t>24/01/2025  10:06:00h</t>
-  </si>
-  <si>
-    <t>17/02/2025 14:19h</t>
-  </si>
-  <si>
-    <t>Foi feito a preventiva pelo Fernando e Wellington porém não finalizaram o relatório</t>
-  </si>
-  <si>
     <t>HH2L2601303KF</t>
   </si>
   <si>
@@ -2260,6 +1678,42 @@
   </si>
   <si>
     <t>BIBLIOTECA DE APARECIDA</t>
+  </si>
+  <si>
+    <t>Aparecida de Goiânia</t>
+  </si>
+  <si>
+    <t>Senador Canedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALMOXARIFADO EDUCAÇÃO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALMOXARIFADO VILA BRASILIA</t>
+  </si>
+  <si>
+    <t>PSF JARDIM LIBERDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PSF PARAISO</t>
+  </si>
+  <si>
+    <t>PSF RESIDENCIAL PRADO</t>
+  </si>
+  <si>
+    <t>PSF SANTA ROSA</t>
+  </si>
+  <si>
+    <t>PSF VILA GALVAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMEI MONTEIRO LOBATO RACK DE DVR INTERNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMEI MONTEIRO LOBATO RACK DE DVR EEXTERNO</t>
+  </si>
+  <si>
+    <t>A manutenção preventiva será realizada no mês de Junho</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +1758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2314,12 +1768,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,12 +1792,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2381,48 +1823,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2745,12 +2169,12 @@
   <dimension ref="A1:AI194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2807,53 +2231,53 @@
     </row>
     <row r="2" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="13">
-        <v>45679.424305555556</v>
+      <c r="E4" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2887,54 +2311,54 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
+      <c r="A5" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>688</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2967,21 +2391,21 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>561</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3015,37 +2439,37 @@
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3078,17 +2502,17 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
+      <c r="E11" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3123,53 +2547,53 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>561</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3203,341 +2627,341 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>53</v>
+      <c r="A15" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>679</v>
+        <v>537</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="14" t="s">
-        <v>55</v>
+      <c r="E16" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>694</v>
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>62</v>
+      <c r="A18" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>70</v>
+      <c r="A20" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>706</v>
+        <v>56</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>695</v>
+        <v>59</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>707</v>
+        <v>62</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>708</v>
+        <v>65</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>685</v>
+        <v>541</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>709</v>
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>45</v>
+      <c r="A27" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>95</v>
+      <c r="A28" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>710</v>
+        <v>76</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>102</v>
+      <c r="A30" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>701</v>
+        <v>82</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>693</v>
+        <v>85</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>711</v>
+        <v>91</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3572,357 +2996,357 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>121</v>
+        <v>97</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>705</v>
+        <v>100</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>128</v>
+      <c r="A38" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>714</v>
+        <v>106</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>715</v>
+        <v>109</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>677</v>
+        <v>535</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>716</v>
+        <v>111</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>717</v>
+        <v>117</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>147</v>
+      <c r="A44" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>151</v>
+        <v>123</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>155</v>
+      <c r="A46" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>159</v>
+        <v>129</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>163</v>
+      <c r="A48" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>167</v>
+      <c r="A49" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>171</v>
+      <c r="A50" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>175</v>
+      <c r="A51" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>179</v>
+      <c r="A52" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>718</v>
+        <v>147</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>678</v>
+        <v>536</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="14" t="s">
-        <v>188</v>
+      <c r="E55" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3957,185 +3381,185 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>192</v>
+        <v>154</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>704</v>
+        <v>157</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>197</v>
+      <c r="A58" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>201</v>
+      <c r="A59" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>205</v>
+      <c r="A60" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>209</v>
+      <c r="A61" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>699</v>
+        <v>170</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>216</v>
+        <v>173</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>220</v>
+        <v>176</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>226</v>
+      <c r="A65" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -4169,441 +3593,441 @@
       <c r="AI66" s="1"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>228</v>
+      <c r="A67" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>232</v>
+        <v>184</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>236</v>
+        <v>187</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>240</v>
+      <c r="A70" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>720</v>
+        <v>193</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>247</v>
+        <v>196</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>251</v>
+        <v>199</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>721</v>
+        <v>202</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>258</v>
+      <c r="A75" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>262</v>
+      <c r="A76" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>722</v>
+        <v>211</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>269</v>
+      <c r="A78" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>737</v>
+        <v>543</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E80" s="13">
-        <v>45679.65625</v>
+        <v>218</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>277</v>
+        <v>221</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>700</v>
+        <v>224</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>284</v>
+        <v>227</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>288</v>
+      <c r="A84" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>692</v>
+        <v>233</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="14" t="s">
-        <v>293</v>
+      <c r="E86" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>297</v>
+        <v>237</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>301</v>
+      <c r="A88" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>690</v>
+        <v>243</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>308</v>
+      <c r="A90" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>315</v>
+      <c r="A91" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -4637,815 +4061,815 @@
       <c r="AI92" s="1"/>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>319</v>
+      <c r="A93" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>723</v>
+        <v>257</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>724</v>
+        <v>260</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>703</v>
+        <v>263</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>332</v>
+        <v>266</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>336</v>
+      <c r="A98" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>340</v>
+      <c r="A99" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>344</v>
+        <v>275</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>348</v>
+        <v>278</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>352</v>
+        <v>281</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>356</v>
+        <v>284</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>360</v>
+      <c r="A104" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>364</v>
+      <c r="A105" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>367</v>
+      <c r="A106" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>371</v>
+        <v>295</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>725</v>
+        <v>298</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E109" s="13">
-        <v>45680.59652777778</v>
+        <v>301</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>379</v>
+        <v>303</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>381</v>
+        <v>304</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>37</v>
+      <c r="A111" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>386</v>
+        <v>308</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>390</v>
+      <c r="A113" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>391</v>
+        <v>312</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>742</v>
+        <v>548</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>393</v>
+        <v>313</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>397</v>
+      <c r="A115" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>726</v>
+        <v>319</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>691</v>
+        <v>322</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>405</v>
+        <v>324</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>74</v>
+        <v>325</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>408</v>
+        <v>327</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>727</v>
+        <v>328</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>410</v>
+        <v>329</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>696</v>
+        <v>331</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>414</v>
+        <v>333</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>416</v>
+        <v>334</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>420</v>
+        <v>337</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>424</v>
+      <c r="A123" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>426</v>
+        <v>342</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>428</v>
+        <v>343</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>432</v>
+      <c r="A125" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>436</v>
+      <c r="A126" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>440</v>
+      <c r="A127" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>697</v>
+        <v>355</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>447</v>
+        <v>358</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>448</v>
+        <v>359</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>451</v>
+        <v>361</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>455</v>
+        <v>364</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>719</v>
+        <v>367</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>459</v>
+        <v>368</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>460</v>
+        <v>369</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>462</v>
+        <v>370</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>464</v>
+        <v>372</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>728</v>
+        <v>373</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>466</v>
+        <v>374</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>729</v>
+        <v>376</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>470</v>
+        <v>378</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>472</v>
+        <v>379</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>730</v>
+        <v>382</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>698</v>
+        <v>385</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="139" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="140" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>483</v>
+        <v>389</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>484</v>
+        <v>390</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>731</v>
+        <v>391</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -5480,461 +4904,461 @@
     </row>
     <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>486</v>
+        <v>392</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>702</v>
+        <v>103</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>488</v>
+        <v>394</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>489</v>
+        <v>395</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>491</v>
+        <v>396</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>492</v>
+        <v>397</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>689</v>
+        <v>399</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>498</v>
+        <v>402</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>499</v>
+        <v>403</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>500</v>
+        <v>404</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>502</v>
+        <v>405</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>504</v>
+        <v>407</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>732</v>
+        <v>408</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>509</v>
+      <c r="A147" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>513</v>
+      <c r="A148" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>517</v>
+      <c r="A149" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>45</v>
+      <c r="A150" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>524</v>
+      <c r="A151" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>525</v>
+        <v>424</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>526</v>
+        <v>425</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>733</v>
+        <v>426</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>531</v>
+      <c r="A153" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>684</v>
+        <v>559</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="E154" s="13" t="s">
-        <v>735</v>
+        <v>431</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>537</v>
+      <c r="A155" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>538</v>
+        <v>435</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>539</v>
+        <v>436</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="E156" s="14" t="s">
-        <v>541</v>
+        <v>437</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>542</v>
+        <v>438</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>738</v>
+        <v>544</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>736</v>
+        <v>439</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>544</v>
+        <v>440</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>545</v>
+        <v>441</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="E158" s="14" t="s">
-        <v>547</v>
+        <v>442</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>551</v>
+      <c r="A159" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>555</v>
+      <c r="A160" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>559</v>
+      <c r="A161" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>559</v>
+      <c r="A162" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>565</v>
+      <c r="A163" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>568</v>
+      <c r="A164" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>572</v>
+      <c r="A165" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="167" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="167" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>577</v>
+        <v>465</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>578</v>
+        <v>466</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>579</v>
+        <v>467</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -5968,133 +5392,133 @@
       <c r="AI167" s="1"/>
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>584</v>
+      <c r="A168" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>588</v>
+      <c r="A169" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="170" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>592</v>
+      <c r="A170" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>595</v>
+      <c r="A171" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6" t="s">
-        <v>597</v>
+      <c r="A172" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>598</v>
+        <v>480</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>599</v>
+        <v>481</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>600</v>
+        <v>482</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
     </row>
     <row r="174" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="175" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9" t="s">
-        <v>37</v>
+      <c r="A174" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="175" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -6128,67 +5552,67 @@
       <c r="AI175" s="1"/>
     </row>
     <row r="176" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>610</v>
+      <c r="A176" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6" t="s">
-        <v>612</v>
+      <c r="A177" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="179" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="179" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>617</v>
+        <v>494</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>618</v>
+        <v>495</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>619</v>
+        <v>496</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -6222,71 +5646,71 @@
       <c r="AI179" s="1"/>
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>624</v>
+      <c r="A180" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="E181" s="12">
-        <v>45435.647222222222</v>
+      <c r="A181" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="183" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="183" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>632</v>
+        <v>506</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>633</v>
+        <v>507</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>634</v>
+        <v>508</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -6320,193 +5744,194 @@
       <c r="AI183" s="1"/>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>639</v>
+      <c r="A184" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>643</v>
+      <c r="A185" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>646</v>
+      <c r="A186" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>650</v>
+      <c r="A187" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>654</v>
+      <c r="A188" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>658</v>
+      <c r="A189" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>662</v>
+      <c r="A190" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>666</v>
+      <c r="A191" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>670</v>
+      <c r="A192" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>673</v>
+      <c r="A193" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>683</v>
+        <v>560</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>682</v>
+        <v>540</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="E194" s="13" t="s">
-        <v>734</v>
+        <v>539</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B194" xr:uid="{B0E86871-8194-4267-B17D-0EFE01415B79}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>